--- a/partial_results/9.xlsx
+++ b/partial_results/9.xlsx
@@ -493,13 +493,13 @@
         <v>125</v>
       </c>
       <c r="M2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>2</v>
       </c>
       <c r="O2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P2">
         <v>100</v>
@@ -517,13 +517,13 @@
         <v>75</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2">
         <v>0</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X2">
         <v>50</v>
@@ -543,25 +543,25 @@
     </row>
     <row r="3" spans="1:28">
       <c r="A3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>3</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H3" t="s">
         <v>5</v>
@@ -591,13 +591,13 @@
         <v>5</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T3" t="s">
         <v>5</v>
@@ -638,52 +638,52 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4">
         <v>2</v>
       </c>
       <c r="O4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R4">
         <v>4</v>
       </c>
       <c r="S4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T4">
         <v>1</v>
@@ -701,16 +701,16 @@
         <v>1</v>
       </c>
       <c r="Y4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z4">
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -751,25 +751,25 @@
         <v>4</v>
       </c>
       <c r="M5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P5" t="s">
         <v>4</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T5" t="s">
         <v>4</v>
@@ -787,13 +787,13 @@
         <v>4</v>
       </c>
       <c r="Y5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z5">
         <v>1</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB5" t="s">
         <v>4</v>
@@ -801,40 +801,40 @@
     </row>
     <row r="6" spans="1:28">
       <c r="A6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>-0.6487979816687841</v>
+        <v>0.3111656931873229</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>2</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6">
-        <v>-0.3050114500089083</v>
+        <v>0.289330219206585</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <v>7</v>
       </c>
       <c r="K6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L6">
-        <v>-0.3639191937157367</v>
+        <v>0.02687887621763718</v>
       </c>
       <c r="M6">
         <v>1</v>
@@ -846,31 +846,31 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>-0.06594070045271594</v>
+        <v>0.1222704414746535</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6">
-        <v>-0.3548777119191595</v>
+        <v>-0.154729343267501</v>
       </c>
       <c r="U6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V6">
         <v>0</v>
       </c>
       <c r="W6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.01135313879900313</v>
+        <v>-0.401516651313085</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -882,36 +882,36 @@
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.01877662157676019</v>
+        <v>-0.125801664572428</v>
       </c>
     </row>
     <row r="7" spans="1:28">
       <c r="A7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>5</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>3</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z7">
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -961,40 +961,40 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>1</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>1</v>
       </c>
       <c r="O8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8">
         <v>3</v>
       </c>
       <c r="S8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U8">
         <v>0</v>
@@ -1026,22 +1026,22 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>1</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -1053,22 +1053,22 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R9">
         <v>1</v>
       </c>
       <c r="S9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V9">
         <v>5</v>
       </c>
       <c r="W9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1100,31 +1100,31 @@
         <v>2</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U10">
         <v>0</v>
@@ -1147,31 +1147,31 @@
     </row>
     <row r="11" spans="1:28">
       <c r="A11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J11">
         <v>2</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M11">
         <v>2</v>
@@ -1183,13 +1183,13 @@
         <v>5</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R11">
         <v>2</v>
       </c>
       <c r="S11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U11">
         <v>0</v>
@@ -1201,24 +1201,24 @@
         <v>0</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z11">
         <v>5</v>
       </c>
       <c r="AA11">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:28">
       <c r="A12">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1295,13 +1295,13 @@
         <v>5</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>1</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -1313,13 +1313,13 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13">
         <v>3</v>
       </c>
       <c r="S13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U13">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>2</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -1369,31 +1369,31 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14">
         <v>0</v>
       </c>
       <c r="W14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y14">
         <v>1</v>
@@ -1443,31 +1443,31 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15">
         <v>1</v>
       </c>
       <c r="S15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V15">
         <v>1</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z15">
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -1499,16 +1499,16 @@
         <v>2</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R16">
         <v>1</v>
@@ -1517,13 +1517,13 @@
         <v>1</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V16">
         <v>2</v>
       </c>
       <c r="W16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="17" spans="1:27">
       <c r="A17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1555,13 +1555,13 @@
         <v>1</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>1</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R17">
         <v>1</v>
       </c>
       <c r="S17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V17">
         <v>5</v>
       </c>
       <c r="W17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -1602,49 +1602,49 @@
     </row>
     <row r="18" spans="1:27">
       <c r="A18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
         <v>1</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U18">
         <v>0</v>
@@ -1667,22 +1667,22 @@
     </row>
     <row r="19" spans="1:27">
       <c r="A19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
         <v>3</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1703,22 +1703,22 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19">
         <v>1</v>
       </c>
       <c r="S19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V19">
         <v>7</v>
       </c>
       <c r="W19">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -1732,22 +1732,22 @@
     </row>
     <row r="20" spans="1:27">
       <c r="A20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1759,7 +1759,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="U20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20">
         <v>1</v>
       </c>
       <c r="W20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -1797,13 +1797,13 @@
     </row>
     <row r="21" spans="1:27">
       <c r="A21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B21">
         <v>5</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1824,40 +1824,40 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N21">
         <v>1</v>
       </c>
       <c r="O21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21">
         <v>1</v>
       </c>
       <c r="S21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V21">
         <v>0</v>
       </c>
       <c r="W21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z21">
         <v>1</v>
       </c>
       <c r="AA21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:27">
@@ -1871,13 +1871,13 @@
         <v>3</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1889,31 +1889,31 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N22">
         <v>1</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R22">
         <v>1</v>
       </c>
       <c r="S22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22">
         <v>0</v>
       </c>
       <c r="W22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y22">
         <v>0</v>
@@ -1927,22 +1927,22 @@
     </row>
     <row r="23" spans="1:27">
       <c r="A23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23">
         <v>4</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1972,13 +1972,13 @@
         <v>0</v>
       </c>
       <c r="U23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V23">
         <v>1</v>
       </c>
       <c r="W23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -2001,40 +2001,40 @@
         <v>1</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24">
         <v>1</v>
       </c>
       <c r="O24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R24">
         <v>0</v>
       </c>
       <c r="S24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U24">
         <v>0</v>
@@ -2046,13 +2046,13 @@
         <v>1</v>
       </c>
       <c r="Y24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z24">
         <v>0</v>
       </c>
       <c r="AA24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:27">
@@ -2075,40 +2075,40 @@
         <v>1</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N25">
         <v>3</v>
       </c>
       <c r="O25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R25">
         <v>1</v>
       </c>
       <c r="S25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V25">
         <v>5</v>
       </c>
       <c r="W25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y25">
         <v>0</v>
@@ -2122,13 +2122,13 @@
     </row>
     <row r="26" spans="1:27">
       <c r="A26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2140,31 +2140,31 @@
         <v>1</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>0</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26">
         <v>0</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26">
         <v>2</v>
       </c>
       <c r="S26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U26">
         <v>0</v>
@@ -2176,24 +2176,24 @@
         <v>2</v>
       </c>
       <c r="Y26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z26">
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:27">
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -2214,13 +2214,13 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27">
         <v>2</v>
       </c>
       <c r="S27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U27">
         <v>0</v>
@@ -2232,51 +2232,51 @@
         <v>0</v>
       </c>
       <c r="Y27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z27">
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:27">
       <c r="E28">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28">
         <v>3</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28">
         <v>0</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R28">
         <v>0</v>
       </c>
       <c r="S28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U28">
         <v>0</v>
@@ -2317,31 +2317,31 @@
         <v>2</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29">
         <v>0</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R29">
         <v>2</v>
       </c>
       <c r="S29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V29">
         <v>4</v>
       </c>
       <c r="W29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -2364,22 +2364,22 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J30">
         <v>1</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30">
         <v>0</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30">
         <v>0</v>
@@ -2391,13 +2391,13 @@
         <v>0</v>
       </c>
       <c r="U30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V30">
         <v>0</v>
       </c>
       <c r="W30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y30">
         <v>0</v>
@@ -2411,13 +2411,13 @@
     </row>
     <row r="31" spans="1:27">
       <c r="E31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31">
         <v>2</v>
       </c>
       <c r="G31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -2429,13 +2429,13 @@
         <v>2</v>
       </c>
       <c r="M31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N31">
         <v>7</v>
       </c>
       <c r="O31">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q31">
         <v>2</v>
@@ -2456,13 +2456,13 @@
         <v>0</v>
       </c>
       <c r="Y31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z31">
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:27">
@@ -2476,22 +2476,22 @@
         <v>1</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J32">
         <v>5</v>
       </c>
       <c r="K32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32">
         <v>3</v>
       </c>
       <c r="O32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q32">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>1</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33">
         <v>0</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M33">
         <v>1</v>
@@ -2550,13 +2550,13 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R33">
         <v>1</v>
       </c>
       <c r="S33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U33">
         <v>0</v>
@@ -2568,24 +2568,24 @@
         <v>3</v>
       </c>
       <c r="Y33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z33">
         <v>4</v>
       </c>
       <c r="AA33">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="5:27">
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>2</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -2597,13 +2597,13 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N34">
         <v>1</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -2624,13 +2624,13 @@
         <v>1</v>
       </c>
       <c r="Y34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z34">
         <v>5</v>
       </c>
       <c r="AA34">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="5:27">
@@ -2644,31 +2644,31 @@
         <v>1</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35">
         <v>2</v>
       </c>
       <c r="K35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N35">
         <v>1</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35">
         <v>0</v>
       </c>
       <c r="S35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U35">
         <v>0</v>
@@ -2691,13 +2691,13 @@
     </row>
     <row r="36" spans="5:27">
       <c r="E36">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F36">
         <v>3</v>
       </c>
       <c r="G36">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I36">
         <v>1</v>
@@ -2709,13 +2709,13 @@
         <v>0</v>
       </c>
       <c r="M36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N36">
         <v>2</v>
       </c>
       <c r="O36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -2756,22 +2756,22 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37">
         <v>1</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N37">
         <v>4</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
         <v>0</v>
@@ -2792,24 +2792,24 @@
         <v>0</v>
       </c>
       <c r="Y37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z37">
         <v>1</v>
       </c>
       <c r="AA37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="5:27">
       <c r="E38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -2821,13 +2821,13 @@
         <v>5</v>
       </c>
       <c r="M38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N38">
         <v>1</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38">
         <v>1</v>
@@ -2848,13 +2848,13 @@
         <v>3</v>
       </c>
       <c r="Y38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z38">
         <v>1</v>
       </c>
       <c r="AA38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="5:27">
@@ -2886,13 +2886,13 @@
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R39">
         <v>0</v>
       </c>
       <c r="S39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U39">
         <v>0</v>
@@ -2904,13 +2904,13 @@
         <v>0</v>
       </c>
       <c r="Y39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z39">
         <v>0</v>
       </c>
       <c r="AA39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="5:27">
@@ -2971,13 +2971,13 @@
     </row>
     <row r="41" spans="5:27">
       <c r="E41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -2998,13 +2998,13 @@
         <v>2</v>
       </c>
       <c r="Q41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R41">
         <v>0</v>
       </c>
       <c r="S41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U41">
         <v>0</v>
@@ -3027,7 +3027,7 @@
     </row>
     <row r="42" spans="5:27">
       <c r="E42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -3036,22 +3036,22 @@
         <v>1</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J42">
         <v>1</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N42">
         <v>1</v>
       </c>
       <c r="O42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
         <v>0</v>
@@ -3072,24 +3072,24 @@
         <v>1</v>
       </c>
       <c r="Y42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z42">
         <v>5</v>
       </c>
       <c r="AA42">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="5:27">
       <c r="E43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -3110,13 +3110,13 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R43">
         <v>0</v>
       </c>
       <c r="S43">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U43">
         <v>0</v>
@@ -3139,13 +3139,13 @@
     </row>
     <row r="44" spans="5:27">
       <c r="E44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44">
         <v>1</v>
@@ -3195,40 +3195,40 @@
     </row>
     <row r="45" spans="5:27">
       <c r="E45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45">
         <v>0</v>
       </c>
       <c r="G45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45">
         <v>1</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N45">
         <v>0</v>
       </c>
       <c r="O45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R45">
         <v>1</v>
       </c>
       <c r="S45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U45">
         <v>0</v>
@@ -3251,40 +3251,40 @@
     </row>
     <row r="46" spans="5:27">
       <c r="E46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F46">
         <v>5</v>
       </c>
       <c r="G46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I46">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J46">
         <v>0</v>
       </c>
       <c r="K46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N46">
         <v>1</v>
       </c>
       <c r="O46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R46">
         <v>1</v>
       </c>
       <c r="S46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U46">
         <v>0</v>
@@ -3307,49 +3307,49 @@
     </row>
     <row r="47" spans="5:27">
       <c r="E47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F47">
         <v>4</v>
       </c>
       <c r="G47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47">
         <v>0</v>
       </c>
       <c r="K47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N47">
         <v>0</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R47">
         <v>1</v>
       </c>
       <c r="S47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V47">
         <v>1</v>
       </c>
       <c r="W47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y47">
         <v>0</v>
@@ -3363,31 +3363,31 @@
     </row>
     <row r="48" spans="5:27">
       <c r="E48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F48">
         <v>4</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48">
         <v>0</v>
       </c>
       <c r="K48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N48">
         <v>1</v>
       </c>
       <c r="O48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q48">
         <v>2</v>
@@ -3399,13 +3399,13 @@
         <v>2</v>
       </c>
       <c r="U48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V48">
         <v>1</v>
       </c>
       <c r="W48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y48">
         <v>0</v>
@@ -3419,40 +3419,40 @@
     </row>
     <row r="49" spans="5:27">
       <c r="E49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49">
         <v>1</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49">
         <v>0</v>
       </c>
       <c r="K49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N49">
         <v>0</v>
       </c>
       <c r="O49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R49">
         <v>1</v>
       </c>
       <c r="S49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U49">
         <v>0</v>
@@ -3502,60 +3502,60 @@
         <v>2</v>
       </c>
       <c r="Q50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R50">
         <v>3</v>
       </c>
       <c r="S50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V50">
         <v>1</v>
       </c>
       <c r="W50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z50">
         <v>5</v>
       </c>
       <c r="AA50">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="5:27">
       <c r="E51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51">
         <v>1</v>
       </c>
       <c r="G51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J51">
         <v>1</v>
       </c>
       <c r="K51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N51">
         <v>0</v>
       </c>
       <c r="O51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q51">
         <v>0</v>
@@ -3567,13 +3567,13 @@
         <v>0</v>
       </c>
       <c r="U51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V51">
         <v>2</v>
       </c>
       <c r="W51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y51">
         <v>0</v>
@@ -3587,13 +3587,13 @@
     </row>
     <row r="52" spans="5:27">
       <c r="I52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52">
         <v>0</v>
       </c>
       <c r="K52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M52">
         <v>1</v>
@@ -3634,13 +3634,13 @@
     </row>
     <row r="53" spans="5:27">
       <c r="I53">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="J53">
         <v>1</v>
       </c>
       <c r="K53">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M53">
         <v>1</v>
@@ -3652,13 +3652,13 @@
         <v>2</v>
       </c>
       <c r="Q53">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R53">
         <v>0</v>
       </c>
       <c r="S53">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U53">
         <v>0</v>
@@ -3690,69 +3690,69 @@
         <v>0</v>
       </c>
       <c r="M54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N54">
         <v>1</v>
       </c>
       <c r="O54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R54">
         <v>0</v>
       </c>
       <c r="S54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V54">
         <v>2</v>
       </c>
       <c r="W54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z54">
         <v>4</v>
       </c>
       <c r="AA54">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="5:27">
       <c r="I55">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J55">
         <v>0</v>
       </c>
       <c r="K55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N55">
         <v>1</v>
       </c>
       <c r="O55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R55">
         <v>0</v>
       </c>
       <c r="S55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U55">
         <v>0</v>
@@ -3811,51 +3811,51 @@
         <v>1</v>
       </c>
       <c r="Y56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z56">
         <v>0</v>
       </c>
       <c r="AA56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="5:27">
       <c r="I57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57">
         <v>1</v>
       </c>
       <c r="K57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N57">
         <v>5</v>
       </c>
       <c r="O57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R57">
         <v>3</v>
       </c>
       <c r="S57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V57">
         <v>0</v>
       </c>
       <c r="W57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y57">
         <v>0</v>
@@ -3878,60 +3878,60 @@
         <v>1</v>
       </c>
       <c r="M58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N58">
         <v>0</v>
       </c>
       <c r="O58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R58">
         <v>1</v>
       </c>
       <c r="S58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V58">
         <v>1</v>
       </c>
       <c r="W58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z58">
         <v>3</v>
       </c>
       <c r="AA58">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="5:27">
       <c r="I59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J59">
         <v>2</v>
       </c>
       <c r="K59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N59">
         <v>0</v>
       </c>
       <c r="O59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59">
         <v>1</v>
@@ -3972,22 +3972,22 @@
         <v>2</v>
       </c>
       <c r="M60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N60">
         <v>2</v>
       </c>
       <c r="O60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R60">
         <v>1</v>
       </c>
       <c r="S60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U60">
         <v>0</v>
@@ -3999,24 +3999,24 @@
         <v>0</v>
       </c>
       <c r="Y60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z60">
         <v>0</v>
       </c>
       <c r="AA60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="5:27">
       <c r="I61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61">
         <v>3</v>
       </c>
       <c r="K61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M61">
         <v>0</v>
@@ -4037,13 +4037,13 @@
         <v>1</v>
       </c>
       <c r="U61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V61">
         <v>7</v>
       </c>
       <c r="W61">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Y61">
         <v>0</v>
@@ -4057,31 +4057,31 @@
     </row>
     <row r="62" spans="5:27">
       <c r="I62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62">
         <v>0</v>
       </c>
       <c r="K62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N62">
         <v>1</v>
       </c>
       <c r="O62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R62">
         <v>4</v>
       </c>
       <c r="S62">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U62">
         <v>0</v>
@@ -4104,13 +4104,13 @@
     </row>
     <row r="63" spans="5:27">
       <c r="I63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63">
         <v>0</v>
       </c>
       <c r="K63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M63">
         <v>0</v>
@@ -4131,13 +4131,13 @@
         <v>1</v>
       </c>
       <c r="U63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V63">
         <v>0</v>
       </c>
       <c r="W63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y63">
         <v>0</v>
@@ -4178,13 +4178,13 @@
         <v>2</v>
       </c>
       <c r="U64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V64">
         <v>0</v>
       </c>
       <c r="W64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y64">
         <v>0</v>
@@ -4207,13 +4207,13 @@
         <v>0</v>
       </c>
       <c r="M65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N65">
         <v>5</v>
       </c>
       <c r="O65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q65">
         <v>0</v>
@@ -4254,22 +4254,22 @@
         <v>0</v>
       </c>
       <c r="M66">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N66">
         <v>0</v>
       </c>
       <c r="O66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R66">
         <v>2</v>
       </c>
       <c r="S66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U66">
         <v>0</v>
@@ -4292,7 +4292,7 @@
     </row>
     <row r="67" spans="9:27">
       <c r="I67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J67">
         <v>1</v>
@@ -4328,13 +4328,13 @@
         <v>0</v>
       </c>
       <c r="Y67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z67">
         <v>1</v>
       </c>
       <c r="AA67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="9:27">
@@ -4348,51 +4348,51 @@
         <v>1</v>
       </c>
       <c r="M68">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N68">
         <v>1</v>
       </c>
       <c r="O68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R68">
         <v>1</v>
       </c>
       <c r="S68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V68">
         <v>0</v>
       </c>
       <c r="W68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z68">
         <v>0</v>
       </c>
       <c r="AA68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="9:27">
       <c r="I69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69">
         <v>0</v>
       </c>
       <c r="K69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M69">
         <v>2</v>
@@ -4404,22 +4404,22 @@
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R69">
         <v>1</v>
       </c>
       <c r="S69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V69">
         <v>0</v>
       </c>
       <c r="W69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y69">
         <v>0</v>
@@ -4460,13 +4460,13 @@
         <v>1</v>
       </c>
       <c r="U70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V70">
         <v>1</v>
       </c>
       <c r="W70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y70">
         <v>0</v>
@@ -4480,25 +4480,25 @@
     </row>
     <row r="71" spans="9:27">
       <c r="I71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J71">
         <v>5</v>
       </c>
       <c r="K71">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M71">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N71">
         <v>0</v>
       </c>
       <c r="O71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R71">
         <v>1</v>
@@ -4527,13 +4527,13 @@
     </row>
     <row r="72" spans="9:27">
       <c r="I72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J72">
         <v>4</v>
       </c>
       <c r="K72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M72">
         <v>1</v>
@@ -4574,13 +4574,13 @@
     </row>
     <row r="73" spans="9:27">
       <c r="I73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J73">
         <v>4</v>
       </c>
       <c r="K73">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M73">
         <v>0</v>
@@ -4592,13 +4592,13 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R73">
         <v>1</v>
       </c>
       <c r="S73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U73">
         <v>0</v>
@@ -4610,13 +4610,13 @@
         <v>0</v>
       </c>
       <c r="Y73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z73">
         <v>1</v>
       </c>
       <c r="AA73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="9:27">
@@ -4630,13 +4630,13 @@
         <v>1</v>
       </c>
       <c r="M74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N74">
         <v>0</v>
       </c>
       <c r="O74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q74">
         <v>2</v>
@@ -4657,13 +4657,13 @@
         <v>1</v>
       </c>
       <c r="Y74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z74">
         <v>0</v>
       </c>
       <c r="AA74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="9:27">
@@ -4677,13 +4677,13 @@
         <v>2</v>
       </c>
       <c r="M75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N75">
         <v>1</v>
       </c>
       <c r="O75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -4695,60 +4695,60 @@
         <v>3</v>
       </c>
       <c r="U75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V75">
         <v>3</v>
       </c>
       <c r="W75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z75">
         <v>1</v>
       </c>
       <c r="AA75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="9:27">
       <c r="I76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76">
         <v>1</v>
       </c>
       <c r="K76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N76">
         <v>1</v>
       </c>
       <c r="O76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R76">
         <v>0</v>
       </c>
       <c r="S76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V76">
         <v>0</v>
       </c>
       <c r="W76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y76">
         <v>0</v>
@@ -4780,42 +4780,42 @@
         <v>1</v>
       </c>
       <c r="U77">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V77">
         <v>0</v>
       </c>
       <c r="W77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z77">
         <v>2</v>
       </c>
       <c r="AA77">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="9:27">
       <c r="M78">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N78">
         <v>1</v>
       </c>
       <c r="O78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R78">
         <v>3</v>
       </c>
       <c r="S78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U78">
         <v>0</v>
@@ -4847,13 +4847,13 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R79">
         <v>1</v>
       </c>
       <c r="S79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U79">
         <v>0</v>
@@ -4876,13 +4876,13 @@
     </row>
     <row r="80" spans="9:27">
       <c r="M80">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N80">
         <v>0</v>
       </c>
       <c r="O80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -4894,13 +4894,13 @@
         <v>2</v>
       </c>
       <c r="U80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V80">
         <v>0</v>
       </c>
       <c r="W80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y80">
         <v>1</v>
@@ -4923,7 +4923,7 @@
         <v>2</v>
       </c>
       <c r="Q81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R81">
         <v>2</v>
@@ -4941,13 +4941,13 @@
         <v>6</v>
       </c>
       <c r="Y81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z81">
         <v>1</v>
       </c>
       <c r="AA81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="13:27">
@@ -4961,22 +4961,22 @@
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R82">
         <v>5</v>
       </c>
       <c r="S82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V82">
         <v>3</v>
       </c>
       <c r="W82">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y82">
         <v>0</v>
@@ -4999,13 +4999,13 @@
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R83">
         <v>0</v>
       </c>
       <c r="S83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U83">
         <v>0</v>
@@ -5028,31 +5028,31 @@
     </row>
     <row r="84" spans="13:27">
       <c r="M84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N84">
         <v>2</v>
       </c>
       <c r="O84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q84">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R84">
         <v>0</v>
       </c>
       <c r="S84">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V84">
         <v>1</v>
       </c>
       <c r="W84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y84">
         <v>0</v>
@@ -5066,31 +5066,31 @@
     </row>
     <row r="85" spans="13:27">
       <c r="M85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N85">
         <v>0</v>
       </c>
       <c r="O85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R85">
         <v>2</v>
       </c>
       <c r="S85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V85">
         <v>1</v>
       </c>
       <c r="W85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y85">
         <v>0</v>
@@ -5104,31 +5104,31 @@
     </row>
     <row r="86" spans="13:27">
       <c r="M86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N86">
         <v>3</v>
       </c>
       <c r="O86">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R86">
         <v>1</v>
       </c>
       <c r="S86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V86">
         <v>2</v>
       </c>
       <c r="W86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y86">
         <v>2</v>
@@ -5142,31 +5142,31 @@
     </row>
     <row r="87" spans="13:27">
       <c r="M87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N87">
         <v>0</v>
       </c>
       <c r="O87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R87">
         <v>1</v>
       </c>
       <c r="S87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V87">
         <v>4</v>
       </c>
       <c r="W87">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y87">
         <v>0</v>
@@ -5198,22 +5198,22 @@
         <v>5</v>
       </c>
       <c r="U88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V88">
         <v>1</v>
       </c>
       <c r="W88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z88">
         <v>0</v>
       </c>
       <c r="AA88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="13:27">
@@ -5227,13 +5227,13 @@
         <v>2</v>
       </c>
       <c r="Q89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R89">
         <v>2</v>
       </c>
       <c r="S89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U89">
         <v>1</v>
@@ -5256,13 +5256,13 @@
     </row>
     <row r="90" spans="13:27">
       <c r="M90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N90">
         <v>0</v>
       </c>
       <c r="O90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q90">
         <v>2</v>
@@ -5274,13 +5274,13 @@
         <v>3</v>
       </c>
       <c r="U90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V90">
         <v>1</v>
       </c>
       <c r="W90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y90">
         <v>0</v>
@@ -5312,27 +5312,27 @@
         <v>0</v>
       </c>
       <c r="U91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V91">
         <v>2</v>
       </c>
       <c r="W91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z91">
         <v>0</v>
       </c>
       <c r="AA91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="13:27">
       <c r="M92">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N92">
         <v>1</v>
@@ -5341,13 +5341,13 @@
         <v>1</v>
       </c>
       <c r="Q92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R92">
         <v>1</v>
       </c>
       <c r="S92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U92">
         <v>0</v>
@@ -5370,13 +5370,13 @@
     </row>
     <row r="93" spans="13:27">
       <c r="M93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N93">
         <v>0</v>
       </c>
       <c r="O93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q93">
         <v>0</v>
@@ -5388,13 +5388,13 @@
         <v>1</v>
       </c>
       <c r="U93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V93">
         <v>1</v>
       </c>
       <c r="W93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y93">
         <v>0</v>
@@ -5408,16 +5408,16 @@
     </row>
     <row r="94" spans="13:27">
       <c r="M94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N94">
         <v>0</v>
       </c>
       <c r="O94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q94">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R94">
         <v>3</v>
@@ -5446,13 +5446,13 @@
     </row>
     <row r="95" spans="13:27">
       <c r="M95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N95">
         <v>0</v>
       </c>
       <c r="O95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q95">
         <v>0</v>
@@ -5473,36 +5473,36 @@
         <v>1</v>
       </c>
       <c r="Y95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z95">
         <v>1</v>
       </c>
       <c r="AA95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="13:27">
       <c r="M96">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N96">
         <v>5</v>
       </c>
       <c r="O96">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R96">
         <v>0</v>
       </c>
       <c r="S96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U96">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V96">
         <v>1</v>
@@ -5511,24 +5511,24 @@
         <v>1</v>
       </c>
       <c r="Y96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z96">
         <v>1</v>
       </c>
       <c r="AA96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="13:27">
       <c r="M97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N97">
         <v>4</v>
       </c>
       <c r="O97">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q97">
         <v>2</v>
@@ -5540,13 +5540,13 @@
         <v>2</v>
       </c>
       <c r="U97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V97">
         <v>0</v>
       </c>
       <c r="W97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y97">
         <v>1</v>
@@ -5569,22 +5569,22 @@
         <v>3</v>
       </c>
       <c r="Q98">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R98">
         <v>0</v>
       </c>
       <c r="S98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U98">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V98">
         <v>1</v>
       </c>
       <c r="W98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y98">
         <v>0</v>
@@ -5598,25 +5598,25 @@
     </row>
     <row r="99" spans="13:27">
       <c r="M99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N99">
         <v>1</v>
       </c>
       <c r="O99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R99">
         <v>0</v>
       </c>
       <c r="S99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U99">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V99">
         <v>0</v>
@@ -5625,13 +5625,13 @@
         <v>1</v>
       </c>
       <c r="Y99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z99">
         <v>1</v>
       </c>
       <c r="AA99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="13:27">
@@ -5674,13 +5674,13 @@
     </row>
     <row r="101" spans="13:27">
       <c r="M101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N101">
         <v>1</v>
       </c>
       <c r="O101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q101">
         <v>0</v>
@@ -5701,13 +5701,13 @@
         <v>0</v>
       </c>
       <c r="Y101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z101">
         <v>0</v>
       </c>
       <c r="AA101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="13:27">
@@ -5741,22 +5741,22 @@
     </row>
     <row r="103" spans="13:27">
       <c r="Q103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R103">
         <v>1</v>
       </c>
       <c r="S103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V103">
         <v>3</v>
       </c>
       <c r="W103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y103">
         <v>0</v>
@@ -5770,31 +5770,31 @@
     </row>
     <row r="104" spans="13:27">
       <c r="Q104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R104">
         <v>0</v>
       </c>
       <c r="S104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V104">
         <v>1</v>
       </c>
       <c r="W104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z104">
         <v>0</v>
       </c>
       <c r="AA104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="13:27">
@@ -5808,13 +5808,13 @@
         <v>0</v>
       </c>
       <c r="U105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V105">
         <v>1</v>
       </c>
       <c r="W105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y105">
         <v>0</v>
@@ -5828,22 +5828,22 @@
     </row>
     <row r="106" spans="13:27">
       <c r="Q106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R106">
         <v>2</v>
       </c>
       <c r="S106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V106">
         <v>2</v>
       </c>
       <c r="W106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y106">
         <v>1</v>
@@ -5857,22 +5857,22 @@
     </row>
     <row r="107" spans="13:27">
       <c r="Q107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R107">
         <v>1</v>
       </c>
       <c r="S107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V107">
         <v>5</v>
       </c>
       <c r="W107">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y107">
         <v>0</v>
@@ -5895,13 +5895,13 @@
         <v>1</v>
       </c>
       <c r="U108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V108">
         <v>0</v>
       </c>
       <c r="W108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y108">
         <v>0</v>
@@ -5924,13 +5924,13 @@
         <v>1</v>
       </c>
       <c r="U109">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V109">
         <v>0</v>
       </c>
       <c r="W109">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y109">
         <v>0</v>
@@ -5944,22 +5944,22 @@
     </row>
     <row r="110" spans="13:27">
       <c r="Q110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R110">
         <v>0</v>
       </c>
       <c r="S110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V110">
         <v>2</v>
       </c>
       <c r="W110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y110">
         <v>0</v>
@@ -5973,42 +5973,42 @@
     </row>
     <row r="111" spans="13:27">
       <c r="Q111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R111">
         <v>3</v>
       </c>
       <c r="S111">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V111">
         <v>1</v>
       </c>
       <c r="W111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z111">
         <v>2</v>
       </c>
       <c r="AA111">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="13:27">
       <c r="Q112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R112">
         <v>0</v>
       </c>
       <c r="S112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U112">
         <v>0</v>
@@ -6031,13 +6031,13 @@
     </row>
     <row r="113" spans="17:27">
       <c r="Q113">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R113">
         <v>0</v>
       </c>
       <c r="S113">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U113">
         <v>0</v>
@@ -6049,24 +6049,24 @@
         <v>5</v>
       </c>
       <c r="Y113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z113">
         <v>1</v>
       </c>
       <c r="AA113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="17:27">
       <c r="Q114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R114">
         <v>2</v>
       </c>
       <c r="S114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U114">
         <v>0</v>
@@ -6078,13 +6078,13 @@
         <v>2</v>
       </c>
       <c r="Y114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z114">
         <v>2</v>
       </c>
       <c r="AA114">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="17:27">
@@ -6098,13 +6098,13 @@
         <v>0</v>
       </c>
       <c r="U115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V115">
         <v>5</v>
       </c>
       <c r="W115">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y115">
         <v>0</v>
@@ -6147,42 +6147,42 @@
     </row>
     <row r="117" spans="17:27">
       <c r="Q117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R117">
         <v>1</v>
       </c>
       <c r="S117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U117">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V117">
         <v>1</v>
       </c>
       <c r="W117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z117">
         <v>1</v>
       </c>
       <c r="AA117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="17:27">
       <c r="Q118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R118">
         <v>0</v>
       </c>
       <c r="S118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U118">
         <v>0</v>
@@ -6194,33 +6194,33 @@
         <v>1</v>
       </c>
       <c r="Y118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z118">
         <v>1</v>
       </c>
       <c r="AA118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="17:27">
       <c r="Q119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R119">
         <v>0</v>
       </c>
       <c r="S119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U119">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V119">
         <v>3</v>
       </c>
       <c r="W119">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y119">
         <v>1</v>
@@ -6234,13 +6234,13 @@
     </row>
     <row r="120" spans="17:27">
       <c r="Q120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R120">
         <v>0</v>
       </c>
       <c r="S120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U120">
         <v>0</v>
@@ -6292,22 +6292,22 @@
     </row>
     <row r="122" spans="17:27">
       <c r="Q122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R122">
         <v>4</v>
       </c>
       <c r="S122">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V122">
         <v>0</v>
       </c>
       <c r="W122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y122">
         <v>1</v>
@@ -6350,13 +6350,13 @@
     </row>
     <row r="124" spans="17:27">
       <c r="Q124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R124">
         <v>1</v>
       </c>
       <c r="S124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U124">
         <v>0</v>
@@ -6379,22 +6379,22 @@
     </row>
     <row r="125" spans="17:27">
       <c r="Q125">
+        <v>1</v>
+      </c>
+      <c r="R125">
+        <v>2</v>
+      </c>
+      <c r="S125">
+        <v>1</v>
+      </c>
+      <c r="U125">
         <v>-1</v>
       </c>
-      <c r="R125">
-        <v>2</v>
-      </c>
-      <c r="S125">
-        <v>3</v>
-      </c>
-      <c r="U125">
-        <v>0</v>
-      </c>
       <c r="V125">
         <v>1</v>
       </c>
       <c r="W125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y125">
         <v>0</v>
@@ -6408,13 +6408,13 @@
     </row>
     <row r="126" spans="17:27">
       <c r="Q126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R126">
         <v>1</v>
       </c>
       <c r="S126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U126">
         <v>0</v>
@@ -6437,13 +6437,13 @@
     </row>
     <row r="127" spans="17:27">
       <c r="U127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V127">
         <v>0</v>
       </c>
       <c r="W127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y127">
         <v>0</v>
@@ -6466,13 +6466,13 @@
         <v>1</v>
       </c>
       <c r="Y128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z128">
         <v>3</v>
       </c>
       <c r="AA128">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="21:27">
@@ -6486,13 +6486,13 @@
         <v>0</v>
       </c>
       <c r="Y129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z129">
         <v>1</v>
       </c>
       <c r="AA129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="21:27">
@@ -6517,13 +6517,13 @@
     </row>
     <row r="131" spans="21:27">
       <c r="U131">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V131">
         <v>2</v>
       </c>
       <c r="W131">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y131">
         <v>0</v>
@@ -6626,24 +6626,24 @@
         <v>3</v>
       </c>
       <c r="Y136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z136">
         <v>1</v>
       </c>
       <c r="AA136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="21:27">
       <c r="U137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V137">
         <v>0</v>
       </c>
       <c r="W137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y137">
         <v>0</v>
@@ -6757,22 +6757,22 @@
     </row>
     <row r="143" spans="21:27">
       <c r="U143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V143">
         <v>0</v>
       </c>
       <c r="W143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z143">
         <v>1</v>
       </c>
       <c r="AA143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="21:27">
@@ -6786,13 +6786,13 @@
         <v>0</v>
       </c>
       <c r="Y144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z144">
         <v>3</v>
       </c>
       <c r="AA144">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="145" spans="21:27">
@@ -6817,13 +6817,13 @@
     </row>
     <row r="146" spans="21:27">
       <c r="U146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V146">
         <v>5</v>
       </c>
       <c r="W146">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y146">
         <v>0</v>
@@ -6837,13 +6837,13 @@
     </row>
     <row r="147" spans="21:27">
       <c r="U147">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V147">
         <v>4</v>
       </c>
       <c r="W147">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y147">
         <v>1</v>
@@ -6857,33 +6857,33 @@
     </row>
     <row r="148" spans="21:27">
       <c r="U148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V148">
         <v>4</v>
       </c>
       <c r="W148">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z148">
         <v>0</v>
       </c>
       <c r="AA148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="21:27">
       <c r="U149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V149">
         <v>1</v>
       </c>
       <c r="W149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y149">
         <v>0</v>
@@ -6926,13 +6926,13 @@
         <v>1</v>
       </c>
       <c r="Y151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z151">
         <v>1</v>
       </c>
       <c r="AA151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="21:27">
@@ -6948,13 +6948,13 @@
     </row>
     <row r="153" spans="21:27">
       <c r="Y153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z153">
         <v>1</v>
       </c>
       <c r="AA153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="21:27">
@@ -6970,13 +6970,13 @@
     </row>
     <row r="155" spans="21:27">
       <c r="Y155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z155">
         <v>0</v>
       </c>
       <c r="AA155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="21:27">
@@ -7014,13 +7014,13 @@
     </row>
     <row r="159" spans="21:27">
       <c r="Y159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z159">
         <v>2</v>
       </c>
       <c r="AA159">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="21:27">
@@ -7047,35 +7047,35 @@
     </row>
     <row r="162" spans="25:27">
       <c r="Y162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z162">
         <v>0</v>
       </c>
       <c r="AA162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="25:27">
       <c r="Y163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z163">
         <v>0</v>
       </c>
       <c r="AA163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="25:27">
       <c r="Y164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z164">
         <v>2</v>
       </c>
       <c r="AA164">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="25:27">
@@ -7102,24 +7102,24 @@
     </row>
     <row r="167" spans="25:27">
       <c r="Y167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z167">
         <v>1</v>
       </c>
       <c r="AA167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="25:27">
       <c r="Y168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z168">
         <v>0</v>
       </c>
       <c r="AA168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="25:27">
@@ -7201,13 +7201,13 @@
     </row>
     <row r="176" spans="25:27">
       <c r="Y176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z176">
         <v>1</v>
       </c>
       <c r="AA176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
